--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_13-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_13-02.xlsx
@@ -110,6 +110,9 @@
     <t>3:3</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>37:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1107,17 +1113,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1125,7 +1131,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1133,17 +1139,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1151,7 +1157,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1159,17 +1165,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1185,17 +1191,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1211,17 +1217,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1237,17 +1243,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1255,7 +1261,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1263,17 +1269,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1281,7 +1287,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1289,13 +1295,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1307,7 +1313,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1315,17 +1321,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1333,7 +1339,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1341,17 +1347,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1359,7 +1365,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1367,17 +1373,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>133.65000000000001</v>
+        <v>11.67</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1385,7 +1391,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1393,17 +1399,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1419,17 +1425,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>25</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1437,7 +1443,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1445,51 +1451,103 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="K31" s="10">
-        <v>906.82000000000005</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="11">
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
+        <v>55</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>25</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c t="s" r="B32" s="7">
         <v>56</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c t="s" r="F32" s="12">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c t="s" r="H32" s="8">
         <v>57</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c t="s" r="I32" s="14">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9">
+        <v>40</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c t="s" r="N32" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="K33" s="10">
+        <v>952.82000000000005</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c t="s" r="A34" s="11">
         <v>58</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c t="s" r="F34" s="12">
+        <v>59</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c t="s" r="I34" s="14">
+        <v>60</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="98">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1578,10 +1636,16 @@
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:N34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
